--- a/MasterData/14. AmortTemplateWKAQ.xlsx
+++ b/MasterData/14. AmortTemplateWKAQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2358,7 +2358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0"/>
   </sheetViews>
@@ -4769,102 +4769,6 @@
       <c r="O51" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L83" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
